--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel10/field_64ha_100ha_14%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1827,28 +1827,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>489.7002543195978</v>
+        <v>616.8826999965647</v>
       </c>
       <c r="AB2" t="n">
-        <v>670.029492010558</v>
+        <v>844.0461250792903</v>
       </c>
       <c r="AC2" t="n">
-        <v>606.0828176853678</v>
+        <v>763.4915475278988</v>
       </c>
       <c r="AD2" t="n">
-        <v>489700.2543195979</v>
+        <v>616882.6999965648</v>
       </c>
       <c r="AE2" t="n">
-        <v>670029.492010558</v>
+        <v>844046.1250792902</v>
       </c>
       <c r="AF2" t="n">
         <v>6.547440407825844e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.97135416666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>606082.8176853678</v>
+        <v>763491.5475278988</v>
       </c>
     </row>
     <row r="3">
@@ -1933,28 +1933,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>266.0374662475356</v>
+        <v>344.2441511838372</v>
       </c>
       <c r="AB3" t="n">
-        <v>364.0041980645523</v>
+        <v>471.010034629834</v>
       </c>
       <c r="AC3" t="n">
-        <v>329.2641482843712</v>
+        <v>426.0574979914974</v>
       </c>
       <c r="AD3" t="n">
-        <v>266037.4662475356</v>
+        <v>344244.1511838372</v>
       </c>
       <c r="AE3" t="n">
-        <v>364004.1980645523</v>
+        <v>471010.034629834</v>
       </c>
       <c r="AF3" t="n">
         <v>1.020170240943946e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.38411458333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>329264.1482843712</v>
+        <v>426057.4979914974</v>
       </c>
     </row>
     <row r="4">
@@ -2039,28 +2039,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>238.8956697625894</v>
+        <v>307.3479988473264</v>
       </c>
       <c r="AB4" t="n">
-        <v>326.8675947021432</v>
+        <v>420.5270912596592</v>
       </c>
       <c r="AC4" t="n">
-        <v>295.6718102254182</v>
+        <v>380.392575883316</v>
       </c>
       <c r="AD4" t="n">
-        <v>238895.6697625894</v>
+        <v>307347.9988473264</v>
       </c>
       <c r="AE4" t="n">
-        <v>326867.5947021432</v>
+        <v>420527.0912596592</v>
       </c>
       <c r="AF4" t="n">
         <v>1.097435775415325e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.30338541666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>295671.8102254182</v>
+        <v>380392.575883316</v>
       </c>
     </row>
   </sheetData>
@@ -2336,28 +2336,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>371.6012639338009</v>
+        <v>468.3394356271776</v>
       </c>
       <c r="AB2" t="n">
-        <v>508.4412432049693</v>
+        <v>640.8026775027772</v>
       </c>
       <c r="AC2" t="n">
-        <v>459.916324555253</v>
+        <v>579.6453693341177</v>
       </c>
       <c r="AD2" t="n">
-        <v>371601.2639338009</v>
+        <v>468339.4356271776</v>
       </c>
       <c r="AE2" t="n">
-        <v>508441.2432049693</v>
+        <v>640802.6775027772</v>
       </c>
       <c r="AF2" t="n">
         <v>8.563214644939801e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.05208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>459916.324555253</v>
+        <v>579645.3693341177</v>
       </c>
     </row>
     <row r="3">
@@ -2442,28 +2442,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.548995080311</v>
+        <v>308.959222862398</v>
       </c>
       <c r="AB3" t="n">
-        <v>316.8155502894427</v>
+        <v>422.7316390392671</v>
       </c>
       <c r="AC3" t="n">
-        <v>286.5791188233297</v>
+        <v>382.3867247169403</v>
       </c>
       <c r="AD3" t="n">
-        <v>231548.995080311</v>
+        <v>308959.222862398</v>
       </c>
       <c r="AE3" t="n">
-        <v>316815.5502894428</v>
+        <v>422731.6390392671</v>
       </c>
       <c r="AF3" t="n">
         <v>1.180722825130611e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.54427083333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>286579.1188233297</v>
+        <v>382386.7247169403</v>
       </c>
     </row>
     <row r="4">
@@ -2548,28 +2548,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>232.1143957816992</v>
+        <v>309.5246235637862</v>
       </c>
       <c r="AB4" t="n">
-        <v>317.5891564728002</v>
+        <v>423.5052452226249</v>
       </c>
       <c r="AC4" t="n">
-        <v>287.278893118311</v>
+        <v>383.0864990119216</v>
       </c>
       <c r="AD4" t="n">
-        <v>232114.3957816992</v>
+        <v>309524.6235637862</v>
       </c>
       <c r="AE4" t="n">
-        <v>317589.1564728002</v>
+        <v>423505.2452226249</v>
       </c>
       <c r="AF4" t="n">
         <v>1.17990509524122e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.55729166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>287278.893118311</v>
+        <v>383086.4990119216</v>
       </c>
     </row>
   </sheetData>
@@ -2845,28 +2845,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.0943232211685</v>
+        <v>324.2594934599294</v>
       </c>
       <c r="AB2" t="n">
-        <v>328.5076452450288</v>
+        <v>443.6661442711091</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.1553366463168</v>
+        <v>401.323270151218</v>
       </c>
       <c r="AD2" t="n">
-        <v>240094.3232211685</v>
+        <v>324259.4934599294</v>
       </c>
       <c r="AE2" t="n">
-        <v>328507.6452450288</v>
+        <v>443666.1442711091</v>
       </c>
       <c r="AF2" t="n">
         <v>1.440339898834106e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>297155.3366463167</v>
+        <v>401323.2701512181</v>
       </c>
     </row>
   </sheetData>
@@ -3142,28 +3142,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>234.5445750541407</v>
+        <v>310.4051360819747</v>
       </c>
       <c r="AB2" t="n">
-        <v>320.9142349652957</v>
+        <v>424.7100012954811</v>
       </c>
       <c r="AC2" t="n">
-        <v>290.2866307862608</v>
+        <v>384.1762748560702</v>
       </c>
       <c r="AD2" t="n">
-        <v>234544.5750541407</v>
+        <v>310405.1360819747</v>
       </c>
       <c r="AE2" t="n">
-        <v>320914.2349652958</v>
+        <v>424710.0012954811</v>
       </c>
       <c r="AF2" t="n">
         <v>1.326566958966171e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.65104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>290286.6307862608</v>
+        <v>384176.2748560702</v>
       </c>
     </row>
     <row r="3">
@@ -3248,28 +3248,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>232.9865681688622</v>
+        <v>308.7456439702111</v>
       </c>
       <c r="AB3" t="n">
-        <v>318.7825012104462</v>
+        <v>422.4394109765412</v>
       </c>
       <c r="AC3" t="n">
-        <v>288.3583467090663</v>
+        <v>382.1223864903763</v>
       </c>
       <c r="AD3" t="n">
-        <v>232986.5681688623</v>
+        <v>308745.643970211</v>
       </c>
       <c r="AE3" t="n">
-        <v>318782.5012104462</v>
+        <v>422439.4109765412</v>
       </c>
       <c r="AF3" t="n">
         <v>1.341457158938222e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.47526041666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>288358.3467090662</v>
+        <v>382122.3864903763</v>
       </c>
     </row>
   </sheetData>
@@ -3545,28 +3545,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>260.7811363154285</v>
+        <v>343.9750052283187</v>
       </c>
       <c r="AB2" t="n">
-        <v>356.8122555585329</v>
+        <v>470.6417772596121</v>
       </c>
       <c r="AC2" t="n">
-        <v>322.7585946771717</v>
+        <v>425.724386587837</v>
       </c>
       <c r="AD2" t="n">
-        <v>260781.1363154285</v>
+        <v>343975.0052283187</v>
       </c>
       <c r="AE2" t="n">
-        <v>356812.2555585329</v>
+        <v>470641.777259612</v>
       </c>
       <c r="AF2" t="n">
         <v>1.502284554982062e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.27473958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>322758.5946771717</v>
+        <v>425724.386587837</v>
       </c>
     </row>
   </sheetData>
@@ -3842,28 +3842,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>391.4562706255494</v>
+        <v>498.220320893863</v>
       </c>
       <c r="AB2" t="n">
-        <v>535.607739301694</v>
+        <v>681.6870229762765</v>
       </c>
       <c r="AC2" t="n">
-        <v>484.490088392923</v>
+        <v>616.6277702571657</v>
       </c>
       <c r="AD2" t="n">
-        <v>391456.2706255494</v>
+        <v>498220.320893863</v>
       </c>
       <c r="AE2" t="n">
-        <v>535607.739301694</v>
+        <v>681687.0229762765</v>
       </c>
       <c r="AF2" t="n">
         <v>7.98799332623157e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.9765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>484490.088392923</v>
+        <v>616627.7702571657</v>
       </c>
     </row>
     <row r="3">
@@ -3948,28 +3948,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.6178223121212</v>
+        <v>312.2550864839574</v>
       </c>
       <c r="AB3" t="n">
-        <v>321.0144550951056</v>
+        <v>427.2411850495255</v>
       </c>
       <c r="AC3" t="n">
-        <v>290.3772860475414</v>
+        <v>386.4658859851673</v>
       </c>
       <c r="AD3" t="n">
-        <v>234617.8223121212</v>
+        <v>312255.0864839574</v>
       </c>
       <c r="AE3" t="n">
-        <v>321014.4550951056</v>
+        <v>427241.1850495255</v>
       </c>
       <c r="AF3" t="n">
         <v>1.15073232036561e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.56380208333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>290377.2860475414</v>
+        <v>386465.8859851673</v>
       </c>
     </row>
     <row r="4">
@@ -4054,28 +4054,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>233.7513717782661</v>
+        <v>301.6465528623519</v>
       </c>
       <c r="AB4" t="n">
-        <v>319.8289392495859</v>
+        <v>412.7261213329724</v>
       </c>
       <c r="AC4" t="n">
-        <v>289.3049141704357</v>
+        <v>373.3361195777022</v>
       </c>
       <c r="AD4" t="n">
-        <v>233751.3717782661</v>
+        <v>301646.5528623519</v>
       </c>
       <c r="AE4" t="n">
-        <v>319828.9392495858</v>
+        <v>412726.1213329724</v>
       </c>
       <c r="AF4" t="n">
         <v>1.15783687746164e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.47265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>289304.9141704357</v>
+        <v>373336.1195777022</v>
       </c>
     </row>
   </sheetData>
@@ -4351,28 +4351,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>273.5670164375751</v>
+        <v>365.4622000688601</v>
       </c>
       <c r="AB2" t="n">
-        <v>374.3064608148746</v>
+        <v>500.0415051885743</v>
       </c>
       <c r="AC2" t="n">
-        <v>338.5831775371194</v>
+        <v>452.3182457460364</v>
       </c>
       <c r="AD2" t="n">
-        <v>273567.0164375751</v>
+        <v>365462.2000688601</v>
       </c>
       <c r="AE2" t="n">
-        <v>374306.4608148746</v>
+        <v>500041.5051885743</v>
       </c>
       <c r="AF2" t="n">
         <v>1.521867724338919e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.73958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>338583.1775371194</v>
+        <v>452318.2457460364</v>
       </c>
     </row>
   </sheetData>
@@ -4648,28 +4648,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>291.5627154883789</v>
+        <v>377.8587095407163</v>
       </c>
       <c r="AB2" t="n">
-        <v>398.9289701703948</v>
+        <v>517.0029563433681</v>
       </c>
       <c r="AC2" t="n">
-        <v>360.8557491576577</v>
+        <v>467.6609198081628</v>
       </c>
       <c r="AD2" t="n">
-        <v>291562.7154883789</v>
+        <v>377858.7095407164</v>
       </c>
       <c r="AE2" t="n">
-        <v>398928.9701703949</v>
+        <v>517002.9563433681</v>
       </c>
       <c r="AF2" t="n">
         <v>1.064851406093008e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.5390625</v>
       </c>
       <c r="AH2" t="n">
-        <v>360855.7491576577</v>
+        <v>467660.9198081628</v>
       </c>
     </row>
     <row r="3">
@@ -4754,28 +4754,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.2102245382481</v>
+        <v>303.8836093882145</v>
       </c>
       <c r="AB3" t="n">
-        <v>310.8790530207481</v>
+        <v>415.7869607636261</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.2091925220312</v>
+        <v>376.1048367890094</v>
       </c>
       <c r="AD3" t="n">
-        <v>227210.2245382481</v>
+        <v>303883.6093882145</v>
       </c>
       <c r="AE3" t="n">
-        <v>310879.0530207481</v>
+        <v>415786.9607636261</v>
       </c>
       <c r="AF3" t="n">
         <v>1.253613348274774e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>281209.1925220312</v>
+        <v>376104.8367890095</v>
       </c>
     </row>
   </sheetData>
@@ -5051,28 +5051,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>343.3981697752008</v>
+        <v>439.8075888830151</v>
       </c>
       <c r="AB2" t="n">
-        <v>469.852525544472</v>
+        <v>601.7641460511726</v>
       </c>
       <c r="AC2" t="n">
-        <v>425.0104599486681</v>
+        <v>544.3326205333316</v>
       </c>
       <c r="AD2" t="n">
-        <v>343398.1697752008</v>
+        <v>439807.588883015</v>
       </c>
       <c r="AE2" t="n">
-        <v>469852.525544472</v>
+        <v>601764.1460511726</v>
       </c>
       <c r="AF2" t="n">
         <v>9.198426326344984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.16015625</v>
       </c>
       <c r="AH2" t="n">
-        <v>425010.4599486681</v>
+        <v>544332.6205333315</v>
       </c>
     </row>
     <row r="3">
@@ -5157,28 +5157,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>230.7698736105994</v>
+        <v>307.9444316592609</v>
       </c>
       <c r="AB3" t="n">
-        <v>315.7495219221704</v>
+        <v>421.3431569457067</v>
       </c>
       <c r="AC3" t="n">
-        <v>285.6148307072493</v>
+        <v>381.1307574056426</v>
       </c>
       <c r="AD3" t="n">
-        <v>230769.8736105994</v>
+        <v>307944.4316592609</v>
       </c>
       <c r="AE3" t="n">
-        <v>315749.5219221704</v>
+        <v>421343.1569457067</v>
       </c>
       <c r="AF3" t="n">
         <v>1.198353925111646e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.70703125</v>
       </c>
       <c r="AH3" t="n">
-        <v>285614.8307072493</v>
+        <v>381130.7574056425</v>
       </c>
     </row>
   </sheetData>
@@ -5454,28 +5454,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>454.4875292986908</v>
+        <v>571.6073836011643</v>
       </c>
       <c r="AB2" t="n">
-        <v>621.8498881611638</v>
+        <v>782.0984397811137</v>
       </c>
       <c r="AC2" t="n">
-        <v>562.5014076068611</v>
+        <v>707.456062370458</v>
       </c>
       <c r="AD2" t="n">
-        <v>454487.5292986908</v>
+        <v>571607.3836011643</v>
       </c>
       <c r="AE2" t="n">
-        <v>621849.8881611638</v>
+        <v>782098.4397811138</v>
       </c>
       <c r="AF2" t="n">
         <v>6.996888412446576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.90364583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>562501.4076068611</v>
+        <v>707456.0623704579</v>
       </c>
     </row>
     <row r="3">
@@ -5560,28 +5560,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>258.6264077454532</v>
+        <v>326.9330981939278</v>
       </c>
       <c r="AB3" t="n">
-        <v>353.8640608691771</v>
+        <v>447.3242882192822</v>
       </c>
       <c r="AC3" t="n">
-        <v>320.0917715511508</v>
+        <v>404.6322859752148</v>
       </c>
       <c r="AD3" t="n">
-        <v>258626.4077454532</v>
+        <v>326933.0981939278</v>
       </c>
       <c r="AE3" t="n">
-        <v>353864.0608691771</v>
+        <v>447324.2882192822</v>
       </c>
       <c r="AF3" t="n">
         <v>1.060793160029758e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>320091.7715511508</v>
+        <v>404632.2859752147</v>
       </c>
     </row>
     <row r="4">
@@ -5666,28 +5666,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>237.5594775672018</v>
+        <v>305.8320025968986</v>
       </c>
       <c r="AB4" t="n">
-        <v>325.0393575917755</v>
+        <v>418.4528383087896</v>
       </c>
       <c r="AC4" t="n">
-        <v>294.0180574989165</v>
+        <v>378.5162867228452</v>
       </c>
       <c r="AD4" t="n">
-        <v>237559.4775672018</v>
+        <v>305832.0025968986</v>
       </c>
       <c r="AE4" t="n">
-        <v>325039.3575917755</v>
+        <v>418452.8383087897</v>
       </c>
       <c r="AF4" t="n">
         <v>1.113856199240545e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.38802083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>294018.0574989165</v>
+        <v>378516.2867228452</v>
       </c>
     </row>
   </sheetData>
@@ -5963,28 +5963,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.0964287560244</v>
+        <v>328.7057758213203</v>
       </c>
       <c r="AB2" t="n">
-        <v>332.6152584813654</v>
+        <v>449.7497439540981</v>
       </c>
       <c r="AC2" t="n">
-        <v>300.8709250404501</v>
+        <v>406.8262596188482</v>
       </c>
       <c r="AD2" t="n">
-        <v>243096.4287560244</v>
+        <v>328705.7758213204</v>
       </c>
       <c r="AE2" t="n">
-        <v>332615.2584813654</v>
+        <v>449749.7439540981</v>
       </c>
       <c r="AF2" t="n">
         <v>1.249350423781882e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.98958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>300870.9250404501</v>
+        <v>406826.2596188482</v>
       </c>
     </row>
     <row r="3">
@@ -6069,28 +6069,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>234.5418330112676</v>
+        <v>310.5982836984338</v>
       </c>
       <c r="AB3" t="n">
-        <v>320.9104831812664</v>
+        <v>424.974274385392</v>
       </c>
       <c r="AC3" t="n">
-        <v>290.2832370672335</v>
+        <v>384.4153260931895</v>
       </c>
       <c r="AD3" t="n">
-        <v>234541.8330112676</v>
+        <v>310598.2836984338</v>
       </c>
       <c r="AE3" t="n">
-        <v>320910.4831812665</v>
+        <v>424974.274385392</v>
       </c>
       <c r="AF3" t="n">
         <v>1.307155777508768e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.27994791666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>290283.2370672335</v>
+        <v>384415.3260931895</v>
       </c>
     </row>
   </sheetData>
@@ -6366,28 +6366,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>240.7241723909499</v>
+        <v>315.8643195324231</v>
       </c>
       <c r="AB2" t="n">
-        <v>329.3694326661076</v>
+        <v>432.1794969345605</v>
       </c>
       <c r="AC2" t="n">
-        <v>297.9348762854543</v>
+        <v>390.9328923148588</v>
       </c>
       <c r="AD2" t="n">
-        <v>240724.1723909499</v>
+        <v>315864.319532423</v>
       </c>
       <c r="AE2" t="n">
-        <v>329369.4326661075</v>
+        <v>432179.4969345605</v>
       </c>
       <c r="AF2" t="n">
         <v>1.40392146245991e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.17838541666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>297934.8762854543</v>
+        <v>390932.8923148588</v>
       </c>
     </row>
   </sheetData>
@@ -10540,28 +10540,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.1719143406464</v>
+        <v>333.8241358730351</v>
       </c>
       <c r="AB2" t="n">
-        <v>342.2962500066341</v>
+        <v>456.7529099829629</v>
       </c>
       <c r="AC2" t="n">
-        <v>309.6279763219071</v>
+        <v>413.1610533109236</v>
       </c>
       <c r="AD2" t="n">
-        <v>250171.9143406464</v>
+        <v>333824.1358730351</v>
       </c>
       <c r="AE2" t="n">
-        <v>342296.250006634</v>
+        <v>456752.9099829629</v>
       </c>
       <c r="AF2" t="n">
         <v>1.471464093143936e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.33723958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>309627.9763219071</v>
+        <v>413161.0533109236</v>
       </c>
     </row>
   </sheetData>
@@ -10837,28 +10837,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>308.8072715794271</v>
+        <v>409.0348217458011</v>
       </c>
       <c r="AB2" t="n">
-        <v>422.5237325902888</v>
+        <v>559.659488455365</v>
       </c>
       <c r="AC2" t="n">
-        <v>382.1986605676541</v>
+        <v>506.2463723642096</v>
       </c>
       <c r="AD2" t="n">
-        <v>308807.2715794271</v>
+        <v>409034.8217458011</v>
       </c>
       <c r="AE2" t="n">
-        <v>422523.7325902889</v>
+        <v>559659.4884553651</v>
       </c>
       <c r="AF2" t="n">
         <v>1.51319163983034e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.29166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>382198.6605676541</v>
+        <v>506246.3723642096</v>
       </c>
     </row>
   </sheetData>
@@ -11134,28 +11134,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>317.5017988115749</v>
+        <v>404.0183957338252</v>
       </c>
       <c r="AB2" t="n">
-        <v>434.4199683247834</v>
+        <v>552.795793076683</v>
       </c>
       <c r="AC2" t="n">
-        <v>392.9595362601202</v>
+        <v>500.0377384392123</v>
       </c>
       <c r="AD2" t="n">
-        <v>317501.7988115749</v>
+        <v>404018.3957338252</v>
       </c>
       <c r="AE2" t="n">
-        <v>434419.9683247834</v>
+        <v>552795.7930766831</v>
       </c>
       <c r="AF2" t="n">
         <v>9.863889510489824e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.37239583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>392959.5362601202</v>
+        <v>500037.7384392123</v>
       </c>
     </row>
     <row r="3">
@@ -11240,28 +11240,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.3428139489187</v>
+        <v>305.2721300678783</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.4287118187452</v>
+        <v>417.6867960147512</v>
       </c>
       <c r="AC3" t="n">
-        <v>282.6109540593078</v>
+        <v>377.8233544302028</v>
       </c>
       <c r="AD3" t="n">
-        <v>228342.8139489187</v>
+        <v>305272.1300678783</v>
       </c>
       <c r="AE3" t="n">
-        <v>312428.7118187452</v>
+        <v>417686.7960147512</v>
       </c>
       <c r="AF3" t="n">
         <v>1.229889195307878e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.73307291666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>282610.9540593078</v>
+        <v>377823.3544302027</v>
       </c>
     </row>
   </sheetData>
@@ -11537,28 +11537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>422.2519552367843</v>
+        <v>539.0195699147419</v>
       </c>
       <c r="AB2" t="n">
-        <v>577.743753596505</v>
+        <v>737.5103554224768</v>
       </c>
       <c r="AC2" t="n">
-        <v>522.6047006217048</v>
+        <v>667.1234022032397</v>
       </c>
       <c r="AD2" t="n">
-        <v>422251.9552367844</v>
+        <v>539019.5699147419</v>
       </c>
       <c r="AE2" t="n">
-        <v>577743.753596505</v>
+        <v>737510.3554224768</v>
       </c>
       <c r="AF2" t="n">
         <v>7.468860347046808e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.92708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>522604.7006217048</v>
+        <v>667123.4022032397</v>
       </c>
     </row>
     <row r="3">
@@ -11643,28 +11643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>239.248377240653</v>
+        <v>317.1048421655545</v>
       </c>
       <c r="AB3" t="n">
-        <v>327.3501846339854</v>
+        <v>433.8768347292072</v>
       </c>
       <c r="AC3" t="n">
-        <v>296.1083424514848</v>
+        <v>392.468238572613</v>
       </c>
       <c r="AD3" t="n">
-        <v>239248.377240653</v>
+        <v>317104.8421655545</v>
       </c>
       <c r="AE3" t="n">
-        <v>327350.1846339853</v>
+        <v>433876.8347292072</v>
       </c>
       <c r="AF3" t="n">
         <v>1.115801250418639e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>15</v>
+        <v>14.67447916666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>296108.3424514848</v>
+        <v>392468.238572613</v>
       </c>
     </row>
     <row r="4">
@@ -11749,28 +11749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>235.6934226251024</v>
+        <v>303.7804043681203</v>
       </c>
       <c r="AB4" t="n">
-        <v>322.4861388954625</v>
+        <v>415.6457511020492</v>
       </c>
       <c r="AC4" t="n">
-        <v>291.7085144115139</v>
+        <v>375.9771039793443</v>
       </c>
       <c r="AD4" t="n">
-        <v>235693.4226251024</v>
+        <v>303780.4043681204</v>
       </c>
       <c r="AE4" t="n">
-        <v>322486.1388954625</v>
+        <v>415645.7511020493</v>
       </c>
       <c r="AF4" t="n">
         <v>1.134742553939204e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.43359375</v>
       </c>
       <c r="AH4" t="n">
-        <v>291708.5144115139</v>
+        <v>375977.1039793444</v>
       </c>
     </row>
   </sheetData>
@@ -12046,28 +12046,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>372.1381456372617</v>
+        <v>507.5148551657574</v>
       </c>
       <c r="AB2" t="n">
-        <v>509.1758284371937</v>
+        <v>694.404214812995</v>
       </c>
       <c r="AC2" t="n">
-        <v>460.5808020039106</v>
+        <v>628.1312511536785</v>
       </c>
       <c r="AD2" t="n">
-        <v>372138.1456372617</v>
+        <v>507514.8551657574</v>
       </c>
       <c r="AE2" t="n">
-        <v>509175.8284371936</v>
+        <v>694404.2148129949</v>
       </c>
       <c r="AF2" t="n">
         <v>1.430424265369386e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.7734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>460580.8020039106</v>
+        <v>628131.2511536785</v>
       </c>
     </row>
   </sheetData>
@@ -12343,28 +12343,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.9275517248053</v>
+        <v>307.4724146089243</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.3335081911799</v>
+        <v>420.6973223935136</v>
       </c>
       <c r="AC2" t="n">
-        <v>287.0476435498838</v>
+        <v>380.5465603966762</v>
       </c>
       <c r="AD2" t="n">
-        <v>231927.5517248053</v>
+        <v>307472.4146089244</v>
       </c>
       <c r="AE2" t="n">
-        <v>317333.5081911799</v>
+        <v>420697.3223935136</v>
       </c>
       <c r="AF2" t="n">
         <v>1.370353298796656e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.80729166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>287047.6435498838</v>
+        <v>380546.5603966762</v>
       </c>
     </row>
     <row r="3">
@@ -12449,28 +12449,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>232.4965854491963</v>
+        <v>308.0414483333154</v>
       </c>
       <c r="AB3" t="n">
-        <v>318.1120852368875</v>
+        <v>421.4758994392216</v>
       </c>
       <c r="AC3" t="n">
-        <v>287.7519142950891</v>
+        <v>381.2508311418816</v>
       </c>
       <c r="AD3" t="n">
-        <v>232496.5854491963</v>
+        <v>308041.4483333154</v>
       </c>
       <c r="AE3" t="n">
-        <v>318112.0852368875</v>
+        <v>421475.8994392216</v>
       </c>
       <c r="AF3" t="n">
         <v>1.370053877099905e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.80729166666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>287751.9142950891</v>
+        <v>381250.8311418816</v>
       </c>
     </row>
   </sheetData>
@@ -12746,28 +12746,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>266.9797006109705</v>
+        <v>352.9400667342894</v>
       </c>
       <c r="AB2" t="n">
-        <v>365.2934046890501</v>
+        <v>482.908169922681</v>
       </c>
       <c r="AC2" t="n">
-        <v>330.43031483804</v>
+        <v>436.8200919511329</v>
       </c>
       <c r="AD2" t="n">
-        <v>266979.7006109705</v>
+        <v>352940.0667342894</v>
       </c>
       <c r="AE2" t="n">
-        <v>365293.4046890502</v>
+        <v>482908.169922681</v>
       </c>
       <c r="AF2" t="n">
         <v>1.151190678329646e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.75130208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>330430.31483804</v>
+        <v>436820.0919511329</v>
       </c>
     </row>
     <row r="3">
@@ -12852,28 +12852,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>235.763103700169</v>
+        <v>302.6145849551036</v>
       </c>
       <c r="AB3" t="n">
-        <v>322.5814796164806</v>
+        <v>414.0506255488371</v>
       </c>
       <c r="AC3" t="n">
-        <v>291.7947559479297</v>
+        <v>374.5342149701581</v>
       </c>
       <c r="AD3" t="n">
-        <v>235763.103700169</v>
+        <v>302614.5849551036</v>
       </c>
       <c r="AE3" t="n">
-        <v>322581.4796164806</v>
+        <v>414050.6255488371</v>
       </c>
       <c r="AF3" t="n">
         <v>1.278959216560108e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>291794.7559479297</v>
+        <v>374534.2149701581</v>
       </c>
     </row>
   </sheetData>
